--- a/files/temp-work.xlsx
+++ b/files/temp-work.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coltongearhart/Desktop/exam5 2/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coltongearhart/Desktop/exam5/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF95A6-67ED-0E42-9C02-7278C1AD1752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003B05B-5E7E-5145-8D9B-529843686CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="13" xr2:uid="{BB8505BC-BCB7-B340-A120-C046C43AD7BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="16" xr2:uid="{BB8505BC-BCB7-B340-A120-C046C43AD7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2.2.1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="3.3.5" sheetId="13" r:id="rId12"/>
     <sheet name="3.4.2" sheetId="14" r:id="rId13"/>
     <sheet name="4.1.2" sheetId="15" r:id="rId14"/>
+    <sheet name="4.2.2" sheetId="16" r:id="rId15"/>
+    <sheet name="4.2.3" sheetId="17" r:id="rId16"/>
+    <sheet name="4.2.4" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="753">
   <si>
     <t>Ratio to SAWW</t>
   </si>
@@ -1984,12 +1987,369 @@
   <si>
     <t>=D13*E14</t>
   </si>
+  <si>
+    <t>Current Differential</t>
+  </si>
+  <si>
+    <t>Proposed Differential</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Current Discount</t>
+  </si>
+  <si>
+    <t>Proposed Discount</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current base rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed expense ratio = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable expense ratio = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target profit provision = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating algorithm = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected rate change = </t>
+  </si>
+  <si>
+    <t>Indicated rate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current average premium per exposure = </t>
+  </si>
+  <si>
+    <t>(Base rate x Factor (1.0 - Discount)) + Expense fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicated rate change = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed fee = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss and LAE ratio = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed avg premium = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Factor factor = </t>
+  </si>
+  <si>
+    <t>Current discount factor</t>
+  </si>
+  <si>
+    <t>Proposed Discount factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Discount factor = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed base rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximated proposed avg rating factor = </t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exact avg rating factor = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximated average rate differential method: Proposed base rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exact average rate differential method: Proposed base rate = </t>
+  </si>
+  <si>
+    <t>=(E18+E19)/(1-E20-E21)-1</t>
+  </si>
+  <si>
+    <t>=E17*E19/(1-E20-E21)</t>
+  </si>
+  <si>
+    <t>=(1+L3)*E17</t>
+  </si>
+  <si>
+    <t>=(F3*SUM(F11:F12)+F4*SUM(F13:F14))/SUM($F$11:$F$14)</t>
+  </si>
+  <si>
+    <t>=(H7*SUM(F11,F13)+H8*SUM(F12,F14))/SUM($F$11:$F$14)</t>
+  </si>
+  <si>
+    <t>=L9*L11</t>
+  </si>
+  <si>
+    <t>=($L$7-$L$5)/L13</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(K19:K22,L19:L22)/SUM(L19:L22)</t>
+  </si>
+  <si>
+    <t>=I19*J19</t>
+  </si>
+  <si>
+    <t>=($L$7-$L$5)/L23</t>
+  </si>
+  <si>
+    <t>=1-E7</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Proposed Relativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target rate increase = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current average premium = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class off-balance factor = </t>
+  </si>
+  <si>
+    <t>Proposed relativites</t>
+  </si>
+  <si>
+    <t>Class Territory</t>
+  </si>
+  <si>
+    <t>Current variable premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class avg relativity change factor = </t>
+  </si>
+  <si>
+    <t>Relativity change factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed average premium = </t>
+  </si>
+  <si>
+    <t>Combined proposed relativities</t>
+  </si>
+  <si>
+    <t>Proposed premium with seed base rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed base rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed avg premium with seed base rate = </t>
+  </si>
+  <si>
+    <t>=XLOOKUP($T28,$T$36:$T$38,$U$36:$U$38)</t>
+  </si>
+  <si>
+    <t>=$U$45*(PRODUCT(V28:X28)+PRODUCT(V29:X29))</t>
+  </si>
+  <si>
+    <t>=Y28*Z28</t>
+  </si>
+  <si>
+    <t>=V28*AB28*$U$48</t>
+  </si>
+  <si>
+    <t>=(W36*AA28+W37*AA30+W38*AA32)/SUM(AA28:AA33)</t>
+  </si>
+  <si>
+    <t>=1/AC36</t>
+  </si>
+  <si>
+    <t>=U47/U46*U45*AC38</t>
+  </si>
+  <si>
+    <t>=SUM(AC28:AC33)/SUM(V28:V33)</t>
+  </si>
+  <si>
+    <t>=U48*(U47/AC43)</t>
+  </si>
+  <si>
+    <t>=V36/U36</t>
+  </si>
+  <si>
+    <t>=(1+U44)*U46</t>
+  </si>
+  <si>
+    <t>On-Level Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed overall change = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap = </t>
+  </si>
+  <si>
+    <t>Relativity Change Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted average change factor = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBF = </t>
+  </si>
+  <si>
+    <t>Proposed premium</t>
+  </si>
+  <si>
+    <t>Proposed Premium</t>
+  </si>
+  <si>
+    <t>% Change in Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortfall = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 3 = </t>
+  </si>
+  <si>
+    <t>Reallocation</t>
+  </si>
+  <si>
+    <t>Adjusted relativity</t>
+  </si>
+  <si>
+    <t>Final relativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final base rate = </t>
+  </si>
+  <si>
+    <t>=E4/D4</t>
+  </si>
+  <si>
+    <t>=C4*F4*($F$11/$C$9)</t>
+  </si>
+  <si>
+    <t>=G4/C4-1</t>
+  </si>
+  <si>
+    <t>=C5*(1+C11) --&gt; Capped class</t>
+  </si>
+  <si>
+    <t>=G4+$H$9*I11 --&gt; Uncapped classes</t>
+  </si>
+  <si>
+    <t>=E4*I4/G4</t>
+  </si>
+  <si>
+    <t>=J4/$J$4</t>
+  </si>
+  <si>
+    <t>=G7/C7-1</t>
+  </si>
+  <si>
+    <t>=SUM(G4:G6)</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(F4:F6,C4:C6)/C7</t>
+  </si>
+  <si>
+    <t>=1/F7</t>
+  </si>
+  <si>
+    <t>=C9*(1+C10)*F11</t>
+  </si>
+  <si>
+    <t>=C5*(H5-C11)</t>
+  </si>
+  <si>
+    <t>=G4/(SUM($G$4,$G$6))</t>
+  </si>
+  <si>
+    <t>=F14*J4</t>
+  </si>
+  <si>
+    <t>Premium Range</t>
+  </si>
+  <si>
+    <t>Policy Count</t>
+  </si>
+  <si>
+    <t>$0 – $50</t>
+  </si>
+  <si>
+    <t>$51 – $100</t>
+  </si>
+  <si>
+    <t>$101 – $200</t>
+  </si>
+  <si>
+    <t>$201 – $500</t>
+  </si>
+  <si>
+    <t>Avg Premium at Proposed Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting base rate from proposal = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total premium without min prem = </t>
+  </si>
+  <si>
+    <t>Avg Premium at Proposed Rates with min prem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total premium with min prem = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proposed min prem = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect of min prem = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min prem offset factor = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed base rate with min prem = </t>
+  </si>
+  <si>
+    <t>=IF(D4&lt;$D$10,$D$10,D4)</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(C4:C7,D4:D7)</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(C4:C7,E4:E7)</t>
+  </si>
+  <si>
+    <t>=I6/I4-1</t>
+  </si>
+  <si>
+    <t>=1/(1+I8)</t>
+  </si>
+  <si>
+    <t>=D9*I10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="14">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -2002,8 +2362,10 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2167,6 +2529,18 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202834"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2182,7 +2556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2368,6 +2742,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2375,7 +2771,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2652,6 +3048,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2685,26 +3093,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2757,7 +3153,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4590,7 +5077,7 @@
   <dimension ref="B2:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN53" sqref="AN53"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7600,7 +8087,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -7638,8 +8125,8 @@
       <c r="D5" s="218" t="s">
         <v>618</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
       <c r="H5" s="218" t="s">
         <v>49</v>
       </c>
@@ -7666,15 +8153,15 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="271">
+      <c r="H6" s="92">
         <f>IF(G6=1,$C$6,$C$7)*_xlfn.XLOOKUP(G6-1,$C$12:$C$14,$D$12:$D$14)*(1+$C$11)^-(G6-1)</f>
         <v>500</v>
       </c>
-      <c r="I6" s="271">
+      <c r="I6" s="92">
         <f>IF(G6=1,$C$9,$C$9-(G6-1)*$C$10)*_xlfn.XLOOKUP(G6-1,$C$12:$C$14,$D$12:$D$14)*(1+$C$11)^-(G6-1)</f>
         <v>400</v>
       </c>
-      <c r="J6" s="271">
+      <c r="J6" s="92">
         <f>IF(G6=1,$D$6,$D$7)*_xlfn.XLOOKUP(G6-1,$C$12:$C$14,$D$12:$D$14)*(1+$C$11)^-(G6-1)</f>
         <v>150</v>
       </c>
@@ -7696,15 +8183,15 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="271">
+      <c r="H7" s="92">
         <f>IF(G7=1,$C$6,$C$7)*_xlfn.XLOOKUP(G7-1,$C$12:$C$14,$D$12:$D$14)*(1+$C$11)^-(G7-1)</f>
         <v>428.57142857142856</v>
       </c>
-      <c r="I7" s="271">
+      <c r="I7" s="92">
         <f t="shared" ref="I7:I8" si="0">IF(G7=1,$C$9,$C$9-(G7-1)*$C$10)*_xlfn.XLOOKUP(G7-1,$C$12:$C$14,$D$12:$D$14)*(1+$C$11)^-(G7-1)</f>
         <v>334.28571428571428</v>
       </c>
-      <c r="J7" s="271">
+      <c r="J7" s="92">
         <f>IF(G7=1,$D$6,$D$7)*_xlfn.XLOOKUP(G7-1,$C$12:$C$14,$D$12:$D$14)*(1+$C$11)^-(G7-1)</f>
         <v>68.571428571428569</v>
       </c>
@@ -7833,6 +8320,1466 @@
   <mergeCells count="1">
     <mergeCell ref="F5:G5"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E0589-E212-BD4F-A369-0EB5B93FD871}">
+  <dimension ref="D2:AD48"/>
+  <sheetViews>
+    <sheetView topLeftCell="R24" zoomScale="82" workbookViewId="0">
+      <selection activeCell="AK64" sqref="AK64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D2" s="218" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="218" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2" s="218" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D3" s="71">
+        <v>1</v>
+      </c>
+      <c r="E3" s="71">
+        <v>0.95</v>
+      </c>
+      <c r="F3" s="71">
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="K3" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="L3" s="276">
+        <f>(E18+E19)/(1-E20-E21)-1</f>
+        <v>0.14775000000000005</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D4" s="71">
+        <v>2</v>
+      </c>
+      <c r="E4" s="71">
+        <v>1</v>
+      </c>
+      <c r="F4" s="71">
+        <v>1</v>
+      </c>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="G5" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="L5" s="127">
+        <f>E17*E19/(1-E20-E21)</f>
+        <v>23.127500000000001</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D6" s="218" t="s">
+        <v>636</v>
+      </c>
+      <c r="E6" s="218" t="s">
+        <v>637</v>
+      </c>
+      <c r="F6" s="218" t="s">
+        <v>638</v>
+      </c>
+      <c r="G6" s="218" t="s">
+        <v>655</v>
+      </c>
+      <c r="H6" s="218" t="s">
+        <v>656</v>
+      </c>
+      <c r="I6" s="218"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D7" s="71" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="59">
+        <f>1-E7</f>
+        <v>0.95</v>
+      </c>
+      <c r="H7" s="59">
+        <f>1-F7</f>
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="81"/>
+      <c r="K7" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="L7" s="156">
+        <f>(1+L3)*E17</f>
+        <v>126.25250000000001</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D8" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0</v>
+      </c>
+      <c r="F8" s="81">
+        <v>0</v>
+      </c>
+      <c r="G8" s="59">
+        <f>1-E8</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="59">
+        <f>1-F8</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K9" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="L9" s="22">
+        <f>(F3*SUM(F11:F12)+F4*SUM(F13:F14))/SUM($F$11:$F$14)</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="218" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="218" t="s">
+        <v>636</v>
+      </c>
+      <c r="F10" s="218" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>639</v>
+      </c>
+      <c r="F11" s="71">
+        <v>100</v>
+      </c>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="K11" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="L11" s="43">
+        <f>(H7*SUM(F11,F13)+H8*SUM(F12,F14))/SUM($F$11:$F$14)</f>
+        <v>0.96</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D12" s="71">
+        <v>1</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="F12" s="71">
+        <v>200</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="71">
+        <v>2</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>639</v>
+      </c>
+      <c r="F13" s="71">
+        <v>300</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="K13" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="L13" s="277">
+        <f>L9*L11</f>
+        <v>0.9456</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D14" s="71">
+        <v>2</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="F14" s="71">
+        <v>400</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K15" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="L15" s="127">
+        <f>($L$7-$L$5)/L13</f>
+        <v>109.05774111675129</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="56" t="s">
+        <v>641</v>
+      </c>
+      <c r="E16" s="275">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D17" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="E17" s="275">
+        <v>110</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D18" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="E18" s="274">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="280" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="281" t="s">
+        <v>636</v>
+      </c>
+      <c r="I18" s="281" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="281" t="s">
+        <v>636</v>
+      </c>
+      <c r="K18" s="281" t="s">
+        <v>660</v>
+      </c>
+      <c r="L18" s="282" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D19" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="E19" s="273">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+      <c r="H19" s="283" t="s">
+        <v>639</v>
+      </c>
+      <c r="I19" s="284">
+        <v>0.95</v>
+      </c>
+      <c r="J19" s="285">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="286">
+        <f>I19*J19</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L19" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D20" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="E20" s="274">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="283" t="s">
+        <v>640</v>
+      </c>
+      <c r="I20" s="284">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="285">
+        <v>1</v>
+      </c>
+      <c r="K20" s="286">
+        <f t="shared" ref="K20:K22" si="0">I20*J20</f>
+        <v>0.95</v>
+      </c>
+      <c r="L20" s="130">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D21" s="56" t="s">
+        <v>644</v>
+      </c>
+      <c r="E21" s="274">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="26">
+        <v>2</v>
+      </c>
+      <c r="H21" s="283" t="s">
+        <v>639</v>
+      </c>
+      <c r="I21" s="285">
+        <v>1</v>
+      </c>
+      <c r="J21" s="285">
+        <v>0.9</v>
+      </c>
+      <c r="K21" s="286">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="L21" s="130">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="E22" s="271" t="s">
+        <v>649</v>
+      </c>
+      <c r="G22" s="287">
+        <v>2</v>
+      </c>
+      <c r="H22" s="84" t="s">
+        <v>640</v>
+      </c>
+      <c r="I22" s="278">
+        <v>1</v>
+      </c>
+      <c r="J22" s="278">
+        <v>1</v>
+      </c>
+      <c r="K22" s="279">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="288">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="E23" s="235" t="s">
+        <v>647</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="289" t="s">
+        <v>661</v>
+      </c>
+      <c r="L23" s="29">
+        <f>SUMPRODUCT(K19:K22,L19:L22)/SUM(L19:L22)</f>
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="K25" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="L25" s="127">
+        <f>($L$7-$L$5)/L23</f>
+        <v>109.06927551560022</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB25" s="36" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="W26" s="292" t="s">
+        <v>347</v>
+      </c>
+      <c r="X26" s="292"/>
+      <c r="Y26" s="292" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z26" s="292"/>
+      <c r="AA26" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC26" s="36" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="T27" s="297" t="s">
+        <v>541</v>
+      </c>
+      <c r="U27" s="297" t="s">
+        <v>314</v>
+      </c>
+      <c r="V27" s="297" t="s">
+        <v>320</v>
+      </c>
+      <c r="W27" s="297" t="s">
+        <v>541</v>
+      </c>
+      <c r="X27" s="297" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y27" s="297" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="297" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB27" s="301" t="s">
+        <v>686</v>
+      </c>
+      <c r="AC27" s="301" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="T28" s="293" t="s">
+        <v>38</v>
+      </c>
+      <c r="U28" s="293" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" s="293">
+        <v>50</v>
+      </c>
+      <c r="W28" s="294">
+        <f>_xlfn.XLOOKUP($T28,$T$36:$T$38,$U$36:$U$38)</f>
+        <v>1</v>
+      </c>
+      <c r="X28" s="294">
+        <f>_xlfn.XLOOKUP($U28,$T$41:$T$42,$U$41:$U$42)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="294">
+        <f>_xlfn.XLOOKUP($T28,$T$36:$T$38,$V$36:$V$38)</f>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="294">
+        <f>_xlfn.XLOOKUP($U28,$T$41:$T$42,$V$41:$V$42)</f>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="298">
+        <f>$U$45*(PRODUCT(V28:X28)+PRODUCT(V29:X29))</f>
+        <v>57000</v>
+      </c>
+      <c r="AB28" s="294">
+        <f>Y28*Z28</f>
+        <v>1</v>
+      </c>
+      <c r="AC28" s="300">
+        <f>V28*AB28*$U$48</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="T29" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="U29" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="131">
+        <v>80</v>
+      </c>
+      <c r="W29" s="295">
+        <f t="shared" ref="W29:W32" si="1">_xlfn.XLOOKUP($T29,$T$36:$T$38,$U$36:$U$38)</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="295">
+        <f t="shared" ref="X29:X33" si="2">_xlfn.XLOOKUP($U29,$T$41:$T$42,$U$41:$U$42)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Y29" s="295">
+        <f t="shared" ref="Y29:Y33" si="3">_xlfn.XLOOKUP($T29,$T$36:$T$38,$V$36:$V$38)</f>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="295">
+        <f t="shared" ref="Z29:Z33" si="4">_xlfn.XLOOKUP($U29,$T$41:$T$42,$V$41:$V$42)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA29" s="299"/>
+      <c r="AB29" s="295">
+        <f t="shared" ref="AB29:AB33" si="5">Y29*Z29</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC29" s="159">
+        <f t="shared" ref="AC29:AC33" si="6">V29*AB29*$U$48</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="T30" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" s="135" t="s">
+        <v>11</v>
+      </c>
+      <c r="V30" s="135">
+        <v>120</v>
+      </c>
+      <c r="W30" s="296">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="X30" s="296">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="296">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="Z30" s="296">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="298">
+        <f>$U$45*(PRODUCT(V30:X30)+PRODUCT(V31:X31))</f>
+        <v>103200</v>
+      </c>
+      <c r="AB30" s="294">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="AC30" s="300">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="T31" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="131">
+        <v>65</v>
+      </c>
+      <c r="W31" s="295">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="X31" s="295">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y31" s="295">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="Z31" s="295">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA31" s="299"/>
+      <c r="AB31" s="295">
+        <f t="shared" si="5"/>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="AC31" s="159">
+        <f t="shared" si="6"/>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="T32" s="135" t="s">
+        <v>336</v>
+      </c>
+      <c r="U32" s="135" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="135">
+        <v>90</v>
+      </c>
+      <c r="W32" s="296">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="X32" s="296">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="296">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="Z32" s="296">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="298">
+        <f>$U$45*(PRODUCT(V32:X32)+PRODUCT(V33:X33))</f>
+        <v>142500</v>
+      </c>
+      <c r="AB32" s="294">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AC32" s="300">
+        <f t="shared" si="6"/>
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="33" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T33" s="131" t="s">
+        <v>336</v>
+      </c>
+      <c r="U33" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="V33" s="131">
+        <v>75</v>
+      </c>
+      <c r="W33" s="295">
+        <f>_xlfn.XLOOKUP($T33,$T$36:$T$38,$U$36:$U$38)</f>
+        <v>1.9</v>
+      </c>
+      <c r="X33" s="295">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y33" s="295">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="Z33" s="295">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA33" s="299"/>
+      <c r="AB33" s="295">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AC33" s="159">
+        <f t="shared" si="6"/>
+        <v>105.00000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T35" s="290" t="s">
+        <v>541</v>
+      </c>
+      <c r="U35" s="218" t="s">
+        <v>318</v>
+      </c>
+      <c r="V35" s="218" t="s">
+        <v>676</v>
+      </c>
+      <c r="W35" s="218" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T36" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" s="71">
+        <v>1</v>
+      </c>
+      <c r="V36" s="71">
+        <v>1</v>
+      </c>
+      <c r="W36" s="43">
+        <f>V36/U36</f>
+        <v>1</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB36" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC36" s="302">
+        <f>(W36*AA28+W37*AA30+W38*AA32)/SUM(AA28:AA33)</f>
+        <v>1.0196564255037992</v>
+      </c>
+      <c r="AD36" s="36" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T37" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="V37" s="71">
+        <v>1.4</v>
+      </c>
+      <c r="W37" s="43">
+        <f t="shared" ref="W37:W38" si="7">V37/U37</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="AC37" s="235"/>
+    </row>
+    <row r="38" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T38" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="U38" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="V38" s="71">
+        <v>1.75</v>
+      </c>
+      <c r="W38" s="43">
+        <f t="shared" si="7"/>
+        <v>0.92105263157894746</v>
+      </c>
+      <c r="AB38" s="56" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC38" s="302">
+        <f>1/AC36</f>
+        <v>0.9807225012149684</v>
+      </c>
+      <c r="AD38" s="36" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="39" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="AC39" s="235"/>
+    </row>
+    <row r="40" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T40" s="218" t="s">
+        <v>314</v>
+      </c>
+      <c r="U40" s="218" t="s">
+        <v>675</v>
+      </c>
+      <c r="V40" s="218" t="s">
+        <v>18</v>
+      </c>
+      <c r="W40" s="218"/>
+      <c r="AB40" s="56" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC40" s="303">
+        <f>U47/U46*U45*AC38</f>
+        <v>539.3973756682326</v>
+      </c>
+      <c r="AD40" s="36" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="41" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T41" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="U41" s="71">
+        <v>1</v>
+      </c>
+      <c r="V41" s="71">
+        <v>1</v>
+      </c>
+      <c r="W41" s="43"/>
+      <c r="AC41" s="235"/>
+    </row>
+    <row r="42" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T42" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="71">
+        <v>0.8</v>
+      </c>
+      <c r="V42" s="71">
+        <v>0.8</v>
+      </c>
+      <c r="W42" s="43"/>
+      <c r="AC42" s="235"/>
+    </row>
+    <row r="43" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="AB43" s="56" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC43" s="304">
+        <f>SUM(AC28:AC33)/SUM(V28:V33)</f>
+        <v>1.2860416666666665</v>
+      </c>
+      <c r="AD43" s="36" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="44" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T44" s="56" t="s">
+        <v>677</v>
+      </c>
+      <c r="U44" s="272">
+        <v>0.1</v>
+      </c>
+      <c r="AC44" s="235"/>
+    </row>
+    <row r="45" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T45" s="56" t="s">
+        <v>641</v>
+      </c>
+      <c r="U45" s="275">
+        <v>500</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC45" s="303">
+        <f>U48*(U47/AC43)</f>
+        <v>539.39737566823271</v>
+      </c>
+      <c r="AD45" s="36" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="46" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T46" s="56" t="s">
+        <v>678</v>
+      </c>
+      <c r="U46" s="291">
+        <v>630.625</v>
+      </c>
+    </row>
+    <row r="47" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T47" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="U47" s="304">
+        <f>(1+U44)*U46</f>
+        <v>693.6875</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="20:30" x14ac:dyDescent="0.2">
+      <c r="T48" s="56" t="s">
+        <v>688</v>
+      </c>
+      <c r="U48" s="275">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AA32:AA33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8FD026-25C8-5347-9FBC-70A51DED24C2}">
+  <dimension ref="B1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I1" s="36" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" s="36" t="s">
+        <v>717</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>719</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="290" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="290" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" s="290" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="290" t="s">
+        <v>676</v>
+      </c>
+      <c r="F3" s="290" t="s">
+        <v>704</v>
+      </c>
+      <c r="G3" s="290" t="s">
+        <v>708</v>
+      </c>
+      <c r="H3" s="290" t="s">
+        <v>709</v>
+      </c>
+      <c r="I3" s="290" t="s">
+        <v>707</v>
+      </c>
+      <c r="J3" s="290" t="s">
+        <v>714</v>
+      </c>
+      <c r="K3" s="290" t="s">
+        <v>715</v>
+      </c>
+      <c r="M3" s="290"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="71">
+        <v>1</v>
+      </c>
+      <c r="C4" s="72">
+        <v>500000</v>
+      </c>
+      <c r="D4" s="71">
+        <v>1</v>
+      </c>
+      <c r="E4" s="71">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43">
+        <f>E4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="155">
+        <f>C4*F4*($F$14/$C$9)</f>
+        <v>583704.36331255559</v>
+      </c>
+      <c r="H4" s="102">
+        <f>G4/C4-1</f>
+        <v>0.16740872662511119</v>
+      </c>
+      <c r="I4" s="156">
+        <f>G4+$H$11*I14</f>
+        <v>590151.51515151514</v>
+      </c>
+      <c r="J4" s="43">
+        <f>E4*I4/G4</f>
+        <v>1.0110452349582786</v>
+      </c>
+      <c r="K4" s="164">
+        <f>J4/$J$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="71">
+        <v>2</v>
+      </c>
+      <c r="C5" s="72">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="E5" s="71">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="43">
+        <f>E5/D5</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="G5" s="155">
+        <f>C5*F5*($F$14/$C$9)</f>
+        <v>136197.68477292964</v>
+      </c>
+      <c r="H5" s="102">
+        <f t="shared" ref="H5:H6" si="0">G5/C5-1</f>
+        <v>0.36197684772929639</v>
+      </c>
+      <c r="I5" s="53">
+        <f>C5*(1+C11)</f>
+        <v>125000</v>
+      </c>
+      <c r="J5" s="43">
+        <f t="shared" ref="J5:J6" si="1">E5*I5/G5</f>
+        <v>1.2848970251716247</v>
+      </c>
+      <c r="K5" s="164">
+        <f t="shared" ref="K5:K6" si="2">J5/$J$4</f>
+        <v>1.2708600770218228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="131">
+        <v>3</v>
+      </c>
+      <c r="C6" s="167">
+        <v>400000</v>
+      </c>
+      <c r="D6" s="131">
+        <v>1.9</v>
+      </c>
+      <c r="E6" s="131">
+        <v>1.75</v>
+      </c>
+      <c r="F6" s="157">
+        <f>E6/D6</f>
+        <v>0.92105263157894746</v>
+      </c>
+      <c r="G6" s="158">
+        <f>C6*F6*($F$14/$C$9)</f>
+        <v>430097.95191451471</v>
+      </c>
+      <c r="H6" s="309">
+        <f t="shared" si="0"/>
+        <v>7.52448797862868E-2</v>
+      </c>
+      <c r="I6" s="159">
+        <f>G6+$H$11*I15</f>
+        <v>434848.48484848486</v>
+      </c>
+      <c r="J6" s="157">
+        <f t="shared" si="1"/>
+        <v>1.7693291611769872</v>
+      </c>
+      <c r="K6" s="160">
+        <f t="shared" si="2"/>
+        <v>1.7499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="308">
+        <f>SUM(C4:C6)</f>
+        <v>1000000</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="307" t="s">
+        <v>705</v>
+      </c>
+      <c r="F7" s="314">
+        <f>SUMPRODUCT(F4:F6,C4:C6)/C7</f>
+        <v>0.98508771929824557</v>
+      </c>
+      <c r="G7" s="155">
+        <f>SUM(G4:G6)</f>
+        <v>1150000</v>
+      </c>
+      <c r="H7" s="102">
+        <f>G7/C7-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="I7" s="155">
+        <f>SUM(I4:I6)</f>
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F8" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="56" t="s">
+        <v>641</v>
+      </c>
+      <c r="C9" s="305">
+        <v>100</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="K9" s="315">
+        <f>F14*J4</f>
+        <v>118.03030303030303</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="56" t="s">
+        <v>702</v>
+      </c>
+      <c r="C10" s="306">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C11" s="306">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>706</v>
+      </c>
+      <c r="F11" s="302">
+        <f>1/F7</f>
+        <v>1.0151380231522706</v>
+      </c>
+      <c r="G11" s="312" t="s">
+        <v>710</v>
+      </c>
+      <c r="H11" s="311">
+        <f>C5*(H5-C11)</f>
+        <v>11197.684772929639</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F12" s="310"/>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F13" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E14" s="56" t="s">
+        <v>658</v>
+      </c>
+      <c r="F14" s="316">
+        <f>C9*(1+C10)*F11</f>
+        <v>116.74087266251111</v>
+      </c>
+      <c r="G14" s="236" t="s">
+        <v>713</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="I14" s="313">
+        <f>G4/(SUM($G$4,$G$6))</f>
+        <v>0.57575757575757569</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="236"/>
+      <c r="H15" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="I15" s="313">
+        <f>G6/(SUM($G$4,$G$6))</f>
+        <v>0.42424242424242425</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F76BF7-0844-E646-B6C0-1A950467BD6A}">
+  <dimension ref="B2:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="36" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="290" t="s">
+        <v>732</v>
+      </c>
+      <c r="C3" s="290" t="s">
+        <v>733</v>
+      </c>
+      <c r="D3" s="218" t="s">
+        <v>738</v>
+      </c>
+      <c r="E3" s="218" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="71" t="s">
+        <v>734</v>
+      </c>
+      <c r="C4" s="71">
+        <v>26</v>
+      </c>
+      <c r="D4" s="72">
+        <v>35</v>
+      </c>
+      <c r="E4" s="68">
+        <f>IF(D4&lt;$D$10,$D$10,D4)</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="312" t="s">
+        <v>740</v>
+      </c>
+      <c r="I4" s="155">
+        <f>SUMPRODUCT(C4:C7,D4:D7)</f>
+        <v>55380</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="71" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" s="71">
+        <v>34</v>
+      </c>
+      <c r="D5" s="72">
+        <v>80</v>
+      </c>
+      <c r="E5" s="68">
+        <f t="shared" ref="E5:E7" si="0">IF(D5&lt;$D$10,$D$10,D5)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="C6" s="71">
+        <v>45</v>
+      </c>
+      <c r="D6" s="72">
+        <v>150</v>
+      </c>
+      <c r="E6" s="68">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H6" s="312" t="s">
+        <v>742</v>
+      </c>
+      <c r="I6" s="155">
+        <f>SUMPRODUCT(C4:C7,E4:E7)</f>
+        <v>57750</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="71" t="s">
+        <v>737</v>
+      </c>
+      <c r="C7" s="71">
+        <v>150</v>
+      </c>
+      <c r="D7" s="72">
+        <v>300</v>
+      </c>
+      <c r="E7" s="68">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="312" t="s">
+        <v>744</v>
+      </c>
+      <c r="I8" s="102">
+        <f>I6/I4-1</f>
+        <v>4.2795232936077898E-2</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="232" t="s">
+        <v>739</v>
+      </c>
+      <c r="D9" s="200">
+        <v>100</v>
+      </c>
+      <c r="E9" s="200"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="232" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" s="200">
+        <v>100</v>
+      </c>
+      <c r="H10" s="312" t="s">
+        <v>745</v>
+      </c>
+      <c r="I10" s="43">
+        <f>1/(1+I8)</f>
+        <v>0.95896103896103901</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="312" t="s">
+        <v>746</v>
+      </c>
+      <c r="I12" s="127">
+        <f>D9*I10</f>
+        <v>95.896103896103895</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8191,26 +10138,26 @@
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="M23" s="239"/>
-      <c r="N23" s="240"/>
-      <c r="O23" s="236" t="s">
+      <c r="M23" s="243"/>
+      <c r="N23" s="244"/>
+      <c r="O23" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="237"/>
-      <c r="Q23" s="237"/>
-      <c r="R23" s="238"/>
-      <c r="S23" s="236" t="s">
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="240" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="237"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="238"/>
-      <c r="W23" s="236" t="s">
+      <c r="T23" s="241"/>
+      <c r="U23" s="241"/>
+      <c r="V23" s="242"/>
+      <c r="W23" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="X23" s="237"/>
-      <c r="Y23" s="237"/>
-      <c r="Z23" s="238"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="242"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="M24" s="24" t="s">
@@ -8276,35 +10223,35 @@
       <c r="R25" s="30">
         <v>0</v>
       </c>
-      <c r="S25" s="245">
+      <c r="S25" s="249">
         <f>SUMPRODUCT(O25:O27,$N$25:$N$27)</f>
         <v>1.0568750000000002</v>
       </c>
-      <c r="T25" s="243">
+      <c r="T25" s="247">
         <f t="shared" ref="T25:V25" si="2">SUMPRODUCT(P25:P27,$N$25:$N$27)</f>
         <v>1.089375</v>
       </c>
-      <c r="U25" s="243">
+      <c r="U25" s="247">
         <f t="shared" si="2"/>
         <v>1.1156250000000001</v>
       </c>
-      <c r="V25" s="241">
+      <c r="V25" s="245">
         <f t="shared" si="2"/>
         <v>1.1418750000000002</v>
       </c>
-      <c r="W25" s="245">
+      <c r="W25" s="249">
         <f>$N$27/S25</f>
         <v>1.0928444707273803</v>
       </c>
-      <c r="X25" s="243">
+      <c r="X25" s="247">
         <f t="shared" ref="X25:Z25" si="3">$N$27/T25</f>
         <v>1.060240963855422</v>
       </c>
-      <c r="Y25" s="243">
+      <c r="Y25" s="247">
         <f t="shared" si="3"/>
         <v>1.0352941176470589</v>
       </c>
-      <c r="Z25" s="241">
+      <c r="Z25" s="245">
         <f t="shared" si="3"/>
         <v>1.0114942528735633</v>
       </c>
@@ -8329,14 +10276,14 @@
       <c r="R26" s="30">
         <v>0.125</v>
       </c>
-      <c r="S26" s="245"/>
-      <c r="T26" s="243"/>
-      <c r="U26" s="243"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="245"/>
-      <c r="X26" s="243"/>
-      <c r="Y26" s="243"/>
-      <c r="Z26" s="241"/>
+      <c r="S26" s="249"/>
+      <c r="T26" s="247"/>
+      <c r="U26" s="247"/>
+      <c r="V26" s="245"/>
+      <c r="W26" s="249"/>
+      <c r="X26" s="247"/>
+      <c r="Y26" s="247"/>
+      <c r="Z26" s="245"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="M27" s="28">
@@ -8358,14 +10305,14 @@
       <c r="R27" s="31">
         <v>0.875</v>
       </c>
-      <c r="S27" s="246"/>
-      <c r="T27" s="244"/>
-      <c r="U27" s="244"/>
-      <c r="V27" s="242"/>
-      <c r="W27" s="246"/>
-      <c r="X27" s="244"/>
-      <c r="Y27" s="244"/>
-      <c r="Z27" s="242"/>
+      <c r="S27" s="250"/>
+      <c r="T27" s="248"/>
+      <c r="U27" s="248"/>
+      <c r="V27" s="246"/>
+      <c r="W27" s="250"/>
+      <c r="X27" s="248"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="246"/>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="N28" s="32" t="s">
@@ -8446,23 +10393,23 @@
       </c>
     </row>
     <row r="37" spans="15:41" x14ac:dyDescent="0.2">
-      <c r="AE37" s="249"/>
-      <c r="AF37" s="249"/>
-      <c r="AG37" s="248" t="s">
+      <c r="AE37" s="237"/>
+      <c r="AF37" s="237"/>
+      <c r="AG37" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="AH37" s="248"/>
-      <c r="AI37" s="248"/>
-      <c r="AJ37" s="248" t="s">
+      <c r="AH37" s="238"/>
+      <c r="AI37" s="238"/>
+      <c r="AJ37" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="AK37" s="248"/>
-      <c r="AL37" s="248"/>
-      <c r="AM37" s="248" t="s">
+      <c r="AK37" s="238"/>
+      <c r="AL37" s="238"/>
+      <c r="AM37" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="AN37" s="248"/>
-      <c r="AO37" s="248"/>
+      <c r="AN37" s="238"/>
+      <c r="AO37" s="238"/>
     </row>
     <row r="38" spans="15:41" x14ac:dyDescent="0.2">
       <c r="AE38" s="15" t="s">
@@ -8511,18 +10458,18 @@
         <f>0.5*3/4*3/4</f>
         <v>0.28125</v>
       </c>
-      <c r="AJ39" s="247"/>
-      <c r="AK39" s="247">
+      <c r="AJ39" s="236"/>
+      <c r="AK39" s="236">
         <f>SUMPRODUCT(AH39:AH42,AF39:AF42)</f>
         <v>1.0636875000000001</v>
       </c>
-      <c r="AL39" s="247"/>
-      <c r="AM39" s="247"/>
-      <c r="AN39" s="247">
+      <c r="AL39" s="236"/>
+      <c r="AM39" s="236"/>
+      <c r="AN39" s="236">
         <f>$AF$42/AK39</f>
         <v>1.0512015982137612</v>
       </c>
-      <c r="AO39" s="247"/>
+      <c r="AO39" s="236"/>
     </row>
     <row r="40" spans="15:41" x14ac:dyDescent="0.2">
       <c r="AE40">
@@ -8536,12 +10483,12 @@
         <f>1-AH39-AH41</f>
         <v>0.59375</v>
       </c>
-      <c r="AJ40" s="247"/>
-      <c r="AK40" s="247"/>
-      <c r="AL40" s="247"/>
-      <c r="AM40" s="247"/>
-      <c r="AN40" s="247"/>
-      <c r="AO40" s="247"/>
+      <c r="AJ40" s="236"/>
+      <c r="AK40" s="236"/>
+      <c r="AL40" s="236"/>
+      <c r="AM40" s="236"/>
+      <c r="AN40" s="236"/>
+      <c r="AO40" s="236"/>
     </row>
     <row r="41" spans="15:41" x14ac:dyDescent="0.2">
       <c r="AE41">
@@ -8554,12 +10501,12 @@
       <c r="AH41">
         <v>0.125</v>
       </c>
-      <c r="AJ41" s="247"/>
-      <c r="AK41" s="247"/>
-      <c r="AL41" s="247"/>
-      <c r="AM41" s="247"/>
-      <c r="AN41" s="247"/>
-      <c r="AO41" s="247"/>
+      <c r="AJ41" s="236"/>
+      <c r="AK41" s="236"/>
+      <c r="AL41" s="236"/>
+      <c r="AM41" s="236"/>
+      <c r="AN41" s="236"/>
+      <c r="AO41" s="236"/>
     </row>
     <row r="42" spans="15:41" x14ac:dyDescent="0.2">
       <c r="AE42">
@@ -8572,31 +10519,31 @@
       <c r="AH42">
         <v>0</v>
       </c>
-      <c r="AJ42" s="247"/>
-      <c r="AK42" s="247"/>
-      <c r="AL42" s="247"/>
-      <c r="AM42" s="247"/>
-      <c r="AN42" s="247"/>
-      <c r="AO42" s="247"/>
+      <c r="AJ42" s="236"/>
+      <c r="AK42" s="236"/>
+      <c r="AL42" s="236"/>
+      <c r="AM42" s="236"/>
+      <c r="AN42" s="236"/>
+      <c r="AO42" s="236"/>
     </row>
     <row r="44" spans="15:41" x14ac:dyDescent="0.2">
-      <c r="AE44" s="249"/>
-      <c r="AF44" s="249"/>
-      <c r="AG44" s="248" t="s">
+      <c r="AE44" s="237"/>
+      <c r="AF44" s="237"/>
+      <c r="AG44" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="AH44" s="248"/>
-      <c r="AI44" s="248"/>
-      <c r="AJ44" s="248" t="s">
+      <c r="AH44" s="238"/>
+      <c r="AI44" s="238"/>
+      <c r="AJ44" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="AK44" s="248"/>
-      <c r="AL44" s="248"/>
-      <c r="AM44" s="248" t="s">
+      <c r="AK44" s="238"/>
+      <c r="AL44" s="238"/>
+      <c r="AM44" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="AN44" s="248"/>
-      <c r="AO44" s="248"/>
+      <c r="AN44" s="238"/>
+      <c r="AO44" s="238"/>
     </row>
     <row r="45" spans="15:41" x14ac:dyDescent="0.2">
       <c r="AE45" s="15" t="s">
@@ -8644,18 +10591,18 @@
       <c r="AH46">
         <v>0</v>
       </c>
-      <c r="AJ46" s="247"/>
-      <c r="AK46" s="247">
+      <c r="AJ46" s="236"/>
+      <c r="AK46" s="236">
         <f>SUMPRODUCT(AH46:AH49,AF46:AF49)</f>
         <v>1.1161437500000002</v>
       </c>
-      <c r="AL46" s="247"/>
-      <c r="AM46" s="247"/>
-      <c r="AN46" s="247">
+      <c r="AL46" s="236"/>
+      <c r="AM46" s="236"/>
+      <c r="AN46" s="236">
         <f>$AF$49/AK46</f>
         <v>1.0017974835230676</v>
       </c>
-      <c r="AO46" s="247"/>
+      <c r="AO46" s="236"/>
     </row>
     <row r="47" spans="15:41" x14ac:dyDescent="0.2">
       <c r="AE47">
@@ -8668,12 +10615,12 @@
       <c r="AH47">
         <v>0.5</v>
       </c>
-      <c r="AJ47" s="247"/>
-      <c r="AK47" s="247"/>
-      <c r="AL47" s="247"/>
-      <c r="AM47" s="247"/>
-      <c r="AN47" s="247"/>
-      <c r="AO47" s="247"/>
+      <c r="AJ47" s="236"/>
+      <c r="AK47" s="236"/>
+      <c r="AL47" s="236"/>
+      <c r="AM47" s="236"/>
+      <c r="AN47" s="236"/>
+      <c r="AO47" s="236"/>
     </row>
     <row r="48" spans="15:41" x14ac:dyDescent="0.2">
       <c r="O48" t="s">
@@ -8689,12 +10636,12 @@
       <c r="AH48">
         <v>0.375</v>
       </c>
-      <c r="AJ48" s="247"/>
-      <c r="AK48" s="247"/>
-      <c r="AL48" s="247"/>
-      <c r="AM48" s="247"/>
-      <c r="AN48" s="247"/>
-      <c r="AO48" s="247"/>
+      <c r="AJ48" s="236"/>
+      <c r="AK48" s="236"/>
+      <c r="AL48" s="236"/>
+      <c r="AM48" s="236"/>
+      <c r="AN48" s="236"/>
+      <c r="AO48" s="236"/>
     </row>
     <row r="49" spans="31:52" x14ac:dyDescent="0.2">
       <c r="AE49">
@@ -8707,12 +10654,12 @@
       <c r="AH49">
         <v>0.125</v>
       </c>
-      <c r="AJ49" s="247"/>
-      <c r="AK49" s="247"/>
-      <c r="AL49" s="247"/>
-      <c r="AM49" s="247"/>
-      <c r="AN49" s="247"/>
-      <c r="AO49" s="247"/>
+      <c r="AJ49" s="236"/>
+      <c r="AK49" s="236"/>
+      <c r="AL49" s="236"/>
+      <c r="AM49" s="236"/>
+      <c r="AN49" s="236"/>
+      <c r="AO49" s="236"/>
     </row>
     <row r="53" spans="31:52" x14ac:dyDescent="0.2">
       <c r="AS53" s="15" t="s">
@@ -8762,20 +10709,20 @@
       </c>
     </row>
     <row r="58" spans="31:52" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AS58" s="249"/>
-      <c r="AT58" s="249"/>
-      <c r="AU58" s="248" t="s">
+      <c r="AS58" s="237"/>
+      <c r="AT58" s="237"/>
+      <c r="AU58" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="AV58" s="248"/>
-      <c r="AW58" s="250" t="s">
+      <c r="AV58" s="238"/>
+      <c r="AW58" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="AX58" s="250"/>
-      <c r="AY58" s="248" t="s">
+      <c r="AX58" s="239"/>
+      <c r="AY58" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="AZ58" s="248"/>
+      <c r="AZ58" s="238"/>
     </row>
     <row r="59" spans="31:52" x14ac:dyDescent="0.2">
       <c r="AS59" s="15" t="s">
@@ -8815,13 +10762,13 @@
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AW60" s="247"/>
-      <c r="AX60" s="247">
+      <c r="AW60" s="236"/>
+      <c r="AX60" s="236">
         <f>SUMPRODUCT(AV60:AV62,AT60:AT62)</f>
         <v>1.0993750000000002</v>
       </c>
-      <c r="AY60" s="247"/>
-      <c r="AZ60" s="247">
+      <c r="AY60" s="236"/>
+      <c r="AZ60" s="236">
         <f>$AT$62/AX60</f>
         <v>1.0505969300739058</v>
       </c>
@@ -8838,10 +10785,10 @@
         <f>0.5-AV60</f>
         <v>0.4375</v>
       </c>
-      <c r="AW61" s="247"/>
-      <c r="AX61" s="247"/>
-      <c r="AY61" s="247"/>
-      <c r="AZ61" s="247"/>
+      <c r="AW61" s="236"/>
+      <c r="AX61" s="236"/>
+      <c r="AY61" s="236"/>
+      <c r="AZ61" s="236"/>
     </row>
     <row r="62" spans="31:52" x14ac:dyDescent="0.2">
       <c r="AS62">
@@ -8854,10 +10801,10 @@
       <c r="AV62">
         <v>0.5</v>
       </c>
-      <c r="AW62" s="247"/>
-      <c r="AX62" s="247"/>
-      <c r="AY62" s="247"/>
-      <c r="AZ62" s="247"/>
+      <c r="AW62" s="236"/>
+      <c r="AX62" s="236"/>
+      <c r="AY62" s="236"/>
+      <c r="AZ62" s="236"/>
     </row>
     <row r="63" spans="31:52" x14ac:dyDescent="0.2">
       <c r="AW63" s="23"/>
@@ -8867,15 +10814,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AW60:AW62"/>
-    <mergeCell ref="AZ60:AZ62"/>
-    <mergeCell ref="AY60:AY62"/>
-    <mergeCell ref="AX60:AX62"/>
-    <mergeCell ref="AO46:AO49"/>
-    <mergeCell ref="AS58:AT58"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="AW58:AX58"/>
-    <mergeCell ref="AY58:AZ58"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Z25:Z27"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="AJ46:AJ49"/>
+    <mergeCell ref="AK46:AK49"/>
+    <mergeCell ref="AL46:AL49"/>
+    <mergeCell ref="AM46:AM49"/>
+    <mergeCell ref="AN46:AN49"/>
     <mergeCell ref="AM37:AO37"/>
     <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AG44:AI44"/>
@@ -8890,23 +10845,15 @@
     <mergeCell ref="AL39:AL42"/>
     <mergeCell ref="AK39:AK42"/>
     <mergeCell ref="AJ39:AJ42"/>
-    <mergeCell ref="AJ46:AJ49"/>
-    <mergeCell ref="AK46:AK49"/>
-    <mergeCell ref="AL46:AL49"/>
-    <mergeCell ref="AM46:AM49"/>
-    <mergeCell ref="AN46:AN49"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="Z25:Z27"/>
-    <mergeCell ref="Y25:Y27"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="AW60:AW62"/>
+    <mergeCell ref="AZ60:AZ62"/>
+    <mergeCell ref="AY60:AY62"/>
+    <mergeCell ref="AX60:AX62"/>
+    <mergeCell ref="AO46:AO49"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="AW58:AX58"/>
+    <mergeCell ref="AY58:AZ58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9338,7 +11285,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="253" t="s">
         <v>96</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -9346,7 +11293,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="251"/>
+      <c r="B4" s="253"/>
       <c r="C4" s="11" t="s">
         <v>98</v>
       </c>
@@ -9450,7 +11397,7 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="253" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -9458,7 +11405,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="251"/>
+      <c r="B12" s="253"/>
       <c r="C12" s="11" t="s">
         <v>98</v>
       </c>
@@ -9558,7 +11505,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="251" t="s">
+      <c r="B18" s="253" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -9566,7 +11513,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="251"/>
+      <c r="B19" s="253"/>
       <c r="C19" s="39" t="s">
         <v>103</v>
       </c>
@@ -9866,7 +11813,7 @@
       </c>
     </row>
     <row r="49" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I49" s="251" t="s">
+      <c r="I49" s="253" t="s">
         <v>96</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -9874,7 +11821,7 @@
       </c>
     </row>
     <row r="50" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I50" s="251"/>
+      <c r="I50" s="253"/>
       <c r="J50" s="11" t="s">
         <v>134</v>
       </c>
@@ -10058,10 +12005,10 @@
     </row>
     <row r="73" spans="9:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="Q74" s="253" t="s">
+      <c r="Q74" s="252" t="s">
         <v>149</v>
       </c>
-      <c r="R74" s="253" t="s">
+      <c r="R74" s="252" t="s">
         <v>96</v>
       </c>
       <c r="S74" s="11" t="s">
@@ -10069,15 +12016,15 @@
       </c>
     </row>
     <row r="75" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="Q75" s="253"/>
-      <c r="R75" s="253"/>
+      <c r="Q75" s="252"/>
+      <c r="R75" s="252"/>
       <c r="S75" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="76" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="Q76" s="253"/>
-      <c r="R76" s="253"/>
+      <c r="Q76" s="252"/>
+      <c r="R76" s="252"/>
       <c r="S76" s="11">
         <v>12</v>
       </c>
@@ -10188,10 +12135,10 @@
       <c r="U81" s="12"/>
     </row>
     <row r="83" spans="17:23" x14ac:dyDescent="0.2">
-      <c r="Q83" s="253" t="s">
+      <c r="Q83" s="252" t="s">
         <v>149</v>
       </c>
-      <c r="R83" s="253" t="s">
+      <c r="R83" s="252" t="s">
         <v>96</v>
       </c>
       <c r="S83" s="11" t="s">
@@ -10199,15 +12146,15 @@
       </c>
     </row>
     <row r="84" spans="17:23" x14ac:dyDescent="0.2">
-      <c r="Q84" s="253"/>
-      <c r="R84" s="253"/>
+      <c r="Q84" s="252"/>
+      <c r="R84" s="252"/>
       <c r="S84" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="85" spans="17:23" x14ac:dyDescent="0.2">
-      <c r="Q85" s="253"/>
-      <c r="R85" s="253"/>
+      <c r="Q85" s="252"/>
+      <c r="R85" s="252"/>
       <c r="S85" s="39" t="s">
         <v>103</v>
       </c>
@@ -10509,7 +12456,7 @@
       <c r="AC116" s="254"/>
     </row>
     <row r="117" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y117" s="251" t="s">
+      <c r="Y117" s="253" t="s">
         <v>96</v>
       </c>
       <c r="Z117" s="11" t="s">
@@ -10517,7 +12464,7 @@
       </c>
     </row>
     <row r="118" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y118" s="251"/>
+      <c r="Y118" s="253"/>
       <c r="Z118" s="11">
         <v>12</v>
       </c>
@@ -10587,7 +12534,7 @@
       <c r="AB122" s="12"/>
     </row>
     <row r="124" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y124" s="251" t="s">
+      <c r="Y124" s="253" t="s">
         <v>96</v>
       </c>
       <c r="Z124" s="11" t="s">
@@ -10595,7 +12542,7 @@
       </c>
     </row>
     <row r="125" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y125" s="251"/>
+      <c r="Y125" s="253"/>
       <c r="Z125" s="40" t="s">
         <v>103</v>
       </c>
@@ -10819,15 +12766,15 @@
       <c r="Y148" s="3"/>
     </row>
     <row r="150" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y150" s="248" t="s">
+      <c r="Y150" s="238" t="s">
         <v>173</v>
       </c>
-      <c r="Z150" s="248"/>
-      <c r="AA150" s="248"/>
-      <c r="AB150" s="248"/>
+      <c r="Z150" s="238"/>
+      <c r="AA150" s="238"/>
+      <c r="AB150" s="238"/>
     </row>
     <row r="151" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y151" s="252" t="s">
+      <c r="Y151" s="251" t="s">
         <v>96</v>
       </c>
       <c r="Z151" s="11" t="s">
@@ -10835,7 +12782,7 @@
       </c>
     </row>
     <row r="152" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y152" s="252"/>
+      <c r="Y152" s="251"/>
       <c r="Z152" s="40" t="s">
         <v>103</v>
       </c>
@@ -11034,6 +12981,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="Y124:Y125"/>
     <mergeCell ref="Y151:Y152"/>
     <mergeCell ref="Y150:AB150"/>
     <mergeCell ref="R74:R76"/>
@@ -11042,11 +12994,6 @@
     <mergeCell ref="R83:R85"/>
     <mergeCell ref="Y117:Y118"/>
     <mergeCell ref="Y116:AC116"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="Y124:Y125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11288,7 +13235,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="249"/>
+      <c r="B2" s="237"/>
       <c r="C2" s="256" t="s">
         <v>187</v>
       </c>
@@ -11296,7 +13243,7 @@
       <c r="E2" s="256"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="249"/>
+      <c r="B3" s="237"/>
       <c r="C3" s="70">
         <v>2021</v>
       </c>
@@ -11420,7 +13367,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="249"/>
+      <c r="B13" s="237"/>
       <c r="C13" s="256" t="s">
         <v>187</v>
       </c>
@@ -11431,7 +13378,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="249"/>
+      <c r="B14" s="237"/>
       <c r="C14" s="70">
         <v>2021</v>
       </c>
@@ -11750,7 +13697,7 @@
       </c>
     </row>
     <row r="33" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q33" s="249"/>
+      <c r="Q33" s="237"/>
       <c r="R33" s="256" t="s">
         <v>187</v>
       </c>
@@ -11770,7 +13717,7 @@
       </c>
     </row>
     <row r="34" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q34" s="249"/>
+      <c r="Q34" s="237"/>
       <c r="R34" s="70">
         <v>2003</v>
       </c>
